--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <x:si>
     <x:t>Hello World!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>와우</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -367,23 +370,29 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A2"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="0">
-        <x:f>MID(A1, 7, 5)</x:f>
+        <x:f>MID(A1, 7, 6)</x:f>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="C1:D2"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
   <x:si>
     <x:t>와우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -370,7 +373,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:C4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -389,9 +392,15 @@
         <x:f>MID(A1, 7, 6)</x:f>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="C1:D2"/>
+    <x:mergeCell ref="A3:A4"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -23,6 +23,27 @@
   </x:si>
   <x:si>
     <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>def</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치1과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치2과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치3과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치4과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설치5과</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -373,7 +394,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
+  <x:dimension ref="A1:C28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -397,10 +418,82 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="2">
+  <x:mergeCells count="4">
     <x:mergeCell ref="C1:D2"/>
     <x:mergeCell ref="A3:A4"/>
+    <x:mergeCell ref="A15:A17"/>
+    <x:mergeCell ref="A18:A20"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -433,28 +433,18 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="0" t="s">
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="0" t="s">
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
@@ -463,37 +453,15 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3">
-      <x:c r="A24" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
+  <x:mergeCells count="7">
     <x:mergeCell ref="C1:D2"/>
     <x:mergeCell ref="A3:A4"/>
-    <x:mergeCell ref="A15:A17"/>
-    <x:mergeCell ref="A18:A20"/>
+    <x:mergeCell ref="A12:A13"/>
+    <x:mergeCell ref="A14:A16"/>
+    <x:mergeCell ref="A17:A19"/>
+    <x:mergeCell ref="A20:A21"/>
+    <x:mergeCell ref="A22:A27"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -34,13 +34,13 @@
     <x:t>설치1과</x:t>
   </x:si>
   <x:si>
+    <x:t>머지방해 데이터</x:t>
+  </x:si>
+  <x:si>
     <x:t>설치2과</x:t>
   </x:si>
   <x:si>
     <x:t>설치3과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설치4과</x:t>
   </x:si>
   <x:si>
     <x:t>설치5과</x:t>
@@ -394,7 +394,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C28"/>
+  <x:dimension ref="A1:C26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -433,13 +433,13 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="0" t="s">
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -454,14 +454,13 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="7">
+  <x:mergeCells count="6">
     <x:mergeCell ref="C1:D2"/>
     <x:mergeCell ref="A3:A4"/>
-    <x:mergeCell ref="A12:A13"/>
-    <x:mergeCell ref="A14:A16"/>
-    <x:mergeCell ref="A17:A19"/>
+    <x:mergeCell ref="A12:A14"/>
+    <x:mergeCell ref="A16:A19"/>
     <x:mergeCell ref="A20:A21"/>
-    <x:mergeCell ref="A22:A27"/>
+    <x:mergeCell ref="A22:A24"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -28,6 +28,9 @@
     <x:t>abc</x:t>
   </x:si>
   <x:si>
+    <x:t>merge안시키고 공백처리하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>def</x:t>
   </x:si>
   <x:si>
@@ -35,6 +38,9 @@
   </x:si>
   <x:si>
     <x:t>머지방해 데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복추가</x:t>
   </x:si>
   <x:si>
     <x:t>설치2과</x:t>
@@ -422,35 +428,41 @@
       <x:c r="A10" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -34,6 +34,9 @@
     <x:t>def</x:t>
   </x:si>
   <x:si>
+    <x:t>공백</x:t>
+  </x:si>
+  <x:si>
     <x:t>설치1과</x:t>
   </x:si>
   <x:si>
@@ -50,6 +53,9 @@
   </x:si>
   <x:si>
     <x:t>설치5과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복추가2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -436,33 +442,93 @@
       <x:c r="A11" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="B13" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="B14" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="B17" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="B18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="B19" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="B21" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="B23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="B24" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="B25" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -74,12 +74,17 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFABC3DF"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -101,14 +106,25 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -434,7 +450,7 @@
       <x:c r="A10" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="B10" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -442,25 +458,27 @@
       <x:c r="A11" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="B11" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
-      <x:c r="A12" s="0" t="s">
+      <x:c r="A12" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="B12" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
-      <x:c r="B13" s="0" t="s">
+      <x:c r="A13" s="2" t="s"/>
+      <x:c r="B13" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
-      <x:c r="B14" s="0" t="s">
+      <x:c r="A14" s="2" t="s"/>
+      <x:c r="B14" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -468,66 +486,72 @@
       <x:c r="A15" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="B15" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
-      <x:c r="A16" s="0" t="s">
+      <x:c r="A16" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="B16" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
-      <x:c r="B17" s="0" t="s">
+      <x:c r="A17" s="2" t="s"/>
+      <x:c r="B17" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
-      <x:c r="B18" s="0" t="s">
+      <x:c r="A18" s="2" t="s"/>
+      <x:c r="B18" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
-      <x:c r="B19" s="0" t="s">
+      <x:c r="A19" s="2" t="s"/>
+      <x:c r="B19" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
-      <x:c r="A20" s="0" t="s">
+      <x:c r="A20" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="B20" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
-      <x:c r="B21" s="0" t="s">
+      <x:c r="A21" s="2" t="s"/>
+      <x:c r="B21" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
-      <x:c r="A22" s="0" t="s">
+      <x:c r="A22" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="B22" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
-      <x:c r="B23" s="0" t="s">
+      <x:c r="A23" s="2" t="s"/>
+      <x:c r="B23" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
-      <x:c r="B24" s="0" t="s">
+      <x:c r="A24" s="2" t="s"/>
+      <x:c r="B24" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
-      <x:c r="B25" s="0" t="s">
+      <x:c r="B25" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -31,13 +31,16 @@
     <x:t>merge안시키고 공백처리하기</x:t>
   </x:si>
   <x:si>
+    <x:t>셀 테두리 테스트</x:t>
+  </x:si>
+  <x:si>
     <x:t>def</x:t>
   </x:si>
   <x:si>
+    <x:t>설치1과</x:t>
+  </x:si>
+  <x:si>
     <x:t>공백</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설치1과</x:t>
   </x:si>
   <x:si>
     <x:t>머지방해 데이터</x:t>
@@ -87,7 +90,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -96,6 +99,57 @@
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
@@ -106,15 +160,24 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -123,8 +186,20 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -422,13 +497,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C26"/>
+  <x:dimension ref="A1:E26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -436,123 +511,126 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:5">
       <x:c r="A2" s="0">
         <x:f>MID(A1, 7, 6)</x:f>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
+      <x:c r="E10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="2" t="s"/>
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="3" t="s"/>
       <x:c r="B13" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="2" t="s"/>
-      <x:c r="B14" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="3" t="s"/>
+      <x:c r="B14" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="3" t="s"/>
+      <x:c r="B17" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="3" t="s"/>
+      <x:c r="B18" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="3" t="s"/>
+      <x:c r="B19" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="3" t="s"/>
+      <x:c r="B21" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B22" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="2" t="s"/>
-      <x:c r="B17" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="2" t="s"/>
-      <x:c r="B18" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="2" t="s"/>
-      <x:c r="B19" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="2" t="s"/>
-      <x:c r="B21" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3">
-      <x:c r="A22" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="3" t="s"/>
       <x:c r="B23" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3">
-      <x:c r="A24" s="2" t="s"/>
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="3" t="s"/>
       <x:c r="B24" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="B25" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="B25" s="4" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -37,10 +37,26 @@
     <x:t>def</x:t>
   </x:si>
   <x:si>
+    <x:t>테스트 
+데이터 벨류 : 1234</x:t>
+  </x:si>
+  <x:si>
     <x:t>설치1과</x:t>
   </x:si>
   <x:si>
+    <x:t>데이터 
+벨류2 : 5678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 
+벨류3 : 9,10,11,12</x:t>
+  </x:si>
+  <x:si>
     <x:t>공백</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 
+벨류4 : 13,14,15,16</x:t>
   </x:si>
   <x:si>
     <x:t>머지방해 데이터</x:t>
@@ -177,7 +193,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -188,6 +204,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -539,98 +559,110 @@
       <x:c r="B11" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="A12" s="3" t="s">
-        <x:v>7</x:v>
+      <x:c r="A12" s="4" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="A13" s="3" t="s"/>
+      <x:c r="A13" s="4" t="s"/>
       <x:c r="B13" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="E13" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="A14" s="3" t="s"/>
-      <x:c r="B14" s="4" t="s">
-        <x:v>8</x:v>
+      <x:c r="A14" s="4" t="s"/>
+      <x:c r="B14" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="A16" s="3" t="s">
+      <x:c r="A16" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="4" t="s"/>
+      <x:c r="B17" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="4" t="s"/>
+      <x:c r="B18" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="4" t="s"/>
+      <x:c r="B19" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="4" t="s"/>
+      <x:c r="B21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B22" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="3" t="s"/>
-      <x:c r="B17" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="3" t="s"/>
-      <x:c r="B18" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="3" t="s"/>
-      <x:c r="B19" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="3" t="s"/>
-      <x:c r="B21" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B22" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
-      <x:c r="A23" s="3" t="s"/>
+      <x:c r="A23" s="4" t="s"/>
       <x:c r="B23" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
-      <x:c r="A24" s="3" t="s"/>
+      <x:c r="A24" s="4" t="s"/>
       <x:c r="B24" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
-      <x:c r="B25" s="4" t="s">
-        <x:v>8</x:v>
+      <x:c r="B25" s="5" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -23,6 +23,9 @@
   </x:si>
   <x:si>
     <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test2</x:t>
   </x:si>
   <x:si>
     <x:t>abc</x:t>
@@ -106,9 +109,43 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="6">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="dotted">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="none">
@@ -176,33 +213,47 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -214,11 +265,11 @@
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -517,152 +568,179 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E26"/>
+  <x:dimension ref="A1:N26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:14">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
+      <x:c r="G1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14">
       <x:c r="A2" s="0">
         <x:f>MID(A1, 7, 6)</x:f>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
+    <x:row r="3" spans="1:14">
+      <x:c r="A3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
+    <x:row r="4" spans="1:14">
+      <x:c r="A4" s="1" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:14">
       <x:c r="A10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="s">
+      <x:c r="B10" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
+      <x:c r="E10" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:14">
       <x:c r="A11" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="4" t="s">
+      <x:c r="B11" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
+    </x:row>
+    <x:row r="12" spans="1:14">
+      <x:c r="A12" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="4" t="s"/>
-      <x:c r="B13" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
+      <x:c r="B12" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="4" t="s"/>
-      <x:c r="B14" s="5" t="s">
+    <x:row r="13" spans="1:14">
+      <x:c r="A13" s="6" t="s"/>
+      <x:c r="B13" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E14" s="3" t="s">
+    </x:row>
+    <x:row r="14" spans="1:14">
+      <x:c r="A14" s="6" t="s"/>
+      <x:c r="B14" s="7" t="s">
         <x:v>12</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
+      <x:c r="E14" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:14">
       <x:c r="A15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="4" t="s">
+      <x:c r="B15" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="4" t="s"/>
-      <x:c r="B17" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="4" t="s"/>
-      <x:c r="B18" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="4" t="s"/>
-      <x:c r="B19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="4" t="s">
+    </x:row>
+    <x:row r="16" spans="1:14">
+      <x:c r="A16" s="6" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="4" t="s"/>
-      <x:c r="B21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="4" t="s">
+      <x:c r="B16" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:14">
+      <x:c r="A17" s="6" t="s"/>
+      <x:c r="B17" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:14">
+      <x:c r="A18" s="6" t="s"/>
+      <x:c r="B18" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:14">
+      <x:c r="A19" s="6" t="s"/>
+      <x:c r="B19" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14">
+      <x:c r="A20" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B22" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="4" t="s"/>
-      <x:c r="B23" s="1" t="s">
+      <x:c r="B20" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="A21" s="6" t="s"/>
+      <x:c r="B21" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="A22" s="6" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="A24" s="4" t="s"/>
-      <x:c r="B24" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="B25" s="5" t="s">
-        <x:v>11</x:v>
+      <x:c r="B22" s="8" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="A23" s="6" t="s"/>
+      <x:c r="B23" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14">
+      <x:c r="A24" s="6" t="s"/>
+      <x:c r="B24" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:14">
+      <x:c r="B25" s="7" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -26,6 +26,9 @@
   </x:si>
   <x:si>
     <x:t>test2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test3</x:t>
   </x:si>
   <x:si>
     <x:t>abc</x:t>
@@ -128,6 +131,23 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -155,23 +175,6 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -217,13 +220,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -241,15 +244,15 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -568,180 +571,360 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N26"/>
+  <x:dimension ref="A1:AA324"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:14">
+    <x:row r="1" spans="1:27">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I1" s="2" t="s">
+      <x:c r="I1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J1" s="1" t="s">
+      <x:c r="J1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="K1" s="2" t="s">
+      <x:c r="K1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="L1" s="1" t="s">
+      <x:c r="L1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="M1" s="1" t="s">
+      <x:c r="M1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="N1" s="2" t="s">
+      <x:c r="N1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:14">
+      <x:c r="AA1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:27">
       <x:c r="A2" s="0">
         <x:f>MID(A1, 7, 6)</x:f>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="A3" s="1" t="s">
+    <x:row r="3" spans="1:27">
+      <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:14">
-      <x:c r="A4" s="1" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:14">
+    <x:row r="10" spans="1:27">
       <x:c r="A10" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E10" s="4" t="s">
+      <x:c r="B10" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:14">
+      <x:c r="E10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G10" s="3" t="s"/>
+      <x:c r="H10" s="3" t="s"/>
+      <x:c r="I10" s="4" t="s"/>
+      <x:c r="J10" s="3" t="s"/>
+      <x:c r="K10" s="4" t="s"/>
+      <x:c r="L10" s="3" t="s"/>
+      <x:c r="M10" s="3" t="s"/>
+      <x:c r="N10" s="4" t="s"/>
+      <x:c r="AA10" s="4" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:27">
       <x:c r="A11" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:14">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G11" s="3" t="s"/>
+      <x:c r="H11" s="3" t="s"/>
+      <x:c r="I11" s="4" t="s"/>
+      <x:c r="J11" s="3" t="s"/>
+      <x:c r="K11" s="4" t="s"/>
+      <x:c r="L11" s="3" t="s"/>
+      <x:c r="M11" s="3" t="s"/>
+      <x:c r="N11" s="4" t="s"/>
+      <x:c r="AA11" s="4" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:27">
       <x:c r="A12" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:14">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G12" s="3" t="s"/>
+      <x:c r="H12" s="3" t="s"/>
+      <x:c r="I12" s="4" t="s"/>
+      <x:c r="J12" s="3" t="s"/>
+      <x:c r="K12" s="4" t="s"/>
+      <x:c r="L12" s="3" t="s"/>
+      <x:c r="M12" s="3" t="s"/>
+      <x:c r="N12" s="4" t="s"/>
+      <x:c r="AA12" s="4" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:27">
       <x:c r="A13" s="6" t="s"/>
-      <x:c r="B13" s="3" t="s">
-        <x:v>5</x:v>
+      <x:c r="B13" s="1" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:14">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G13" s="3" t="s"/>
+      <x:c r="H13" s="3" t="s"/>
+      <x:c r="I13" s="4" t="s"/>
+      <x:c r="J13" s="3" t="s"/>
+      <x:c r="K13" s="4" t="s"/>
+      <x:c r="L13" s="3" t="s"/>
+      <x:c r="M13" s="3" t="s"/>
+      <x:c r="N13" s="4" t="s"/>
+      <x:c r="AA13" s="4" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:27">
       <x:c r="A14" s="6" t="s"/>
       <x:c r="B14" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G14" s="3" t="s"/>
+      <x:c r="H14" s="3" t="s"/>
+      <x:c r="I14" s="4" t="s"/>
+      <x:c r="J14" s="3" t="s"/>
+      <x:c r="K14" s="4" t="s"/>
+      <x:c r="L14" s="3" t="s"/>
+      <x:c r="M14" s="3" t="s"/>
+      <x:c r="N14" s="4" t="s"/>
+      <x:c r="AA14" s="4" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:27">
+      <x:c r="A15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G15" s="3" t="s"/>
+      <x:c r="H15" s="3" t="s"/>
+      <x:c r="I15" s="4" t="s"/>
+      <x:c r="J15" s="3" t="s"/>
+      <x:c r="K15" s="4" t="s"/>
+      <x:c r="L15" s="3" t="s"/>
+      <x:c r="M15" s="3" t="s"/>
+      <x:c r="N15" s="4" t="s"/>
+      <x:c r="AA15" s="4" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:27">
+      <x:c r="A16" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G16" s="3" t="s"/>
+      <x:c r="H16" s="3" t="s"/>
+      <x:c r="I16" s="4" t="s"/>
+      <x:c r="J16" s="3" t="s"/>
+      <x:c r="K16" s="4" t="s"/>
+      <x:c r="L16" s="3" t="s"/>
+      <x:c r="M16" s="3" t="s"/>
+      <x:c r="N16" s="4" t="s"/>
+      <x:c r="AA16" s="4" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:27">
+      <x:c r="A17" s="6" t="s"/>
+      <x:c r="B17" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G17" s="3" t="s"/>
+      <x:c r="H17" s="3" t="s"/>
+      <x:c r="I17" s="4" t="s"/>
+      <x:c r="J17" s="3" t="s"/>
+      <x:c r="K17" s="4" t="s"/>
+      <x:c r="L17" s="3" t="s"/>
+      <x:c r="M17" s="3" t="s"/>
+      <x:c r="N17" s="4" t="s"/>
+      <x:c r="AA17" s="4" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:27">
+      <x:c r="A18" s="6" t="s"/>
+      <x:c r="B18" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G18" s="3" t="s"/>
+      <x:c r="H18" s="3" t="s"/>
+      <x:c r="I18" s="4" t="s"/>
+      <x:c r="J18" s="3" t="s"/>
+      <x:c r="K18" s="4" t="s"/>
+      <x:c r="L18" s="3" t="s"/>
+      <x:c r="M18" s="3" t="s"/>
+      <x:c r="N18" s="4" t="s"/>
+      <x:c r="AA18" s="4" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:27">
+      <x:c r="A19" s="6" t="s"/>
+      <x:c r="B19" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="3" t="s"/>
+      <x:c r="H19" s="3" t="s"/>
+      <x:c r="I19" s="4" t="s"/>
+      <x:c r="J19" s="3" t="s"/>
+      <x:c r="K19" s="4" t="s"/>
+      <x:c r="L19" s="3" t="s"/>
+      <x:c r="M19" s="3" t="s"/>
+      <x:c r="N19" s="4" t="s"/>
+      <x:c r="AA19" s="4" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:27">
+      <x:c r="A20" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="3" t="s"/>
+      <x:c r="H20" s="3" t="s"/>
+      <x:c r="I20" s="4" t="s"/>
+      <x:c r="J20" s="3" t="s"/>
+      <x:c r="K20" s="4" t="s"/>
+      <x:c r="L20" s="3" t="s"/>
+      <x:c r="M20" s="3" t="s"/>
+      <x:c r="N20" s="4" t="s"/>
+      <x:c r="AA20" s="4" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:27">
+      <x:c r="A21" s="6" t="s"/>
+      <x:c r="B21" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G21" s="3" t="s"/>
+      <x:c r="H21" s="3" t="s"/>
+      <x:c r="I21" s="4" t="s"/>
+      <x:c r="J21" s="3" t="s"/>
+      <x:c r="K21" s="4" t="s"/>
+      <x:c r="L21" s="3" t="s"/>
+      <x:c r="M21" s="3" t="s"/>
+      <x:c r="N21" s="4" t="s"/>
+      <x:c r="AA21" s="4" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:27">
+      <x:c r="A22" s="6" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B22" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:14">
-      <x:c r="A15" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:14">
-      <x:c r="A16" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:14">
-      <x:c r="A17" s="6" t="s"/>
-      <x:c r="B17" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:14">
-      <x:c r="A18" s="6" t="s"/>
-      <x:c r="B18" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:14">
-      <x:c r="A19" s="6" t="s"/>
-      <x:c r="B19" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:14">
-      <x:c r="A20" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:14">
-      <x:c r="A21" s="6" t="s"/>
-      <x:c r="B21" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:14">
-      <x:c r="A22" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B22" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:14">
+      <x:c r="G22" s="3" t="s"/>
+      <x:c r="H22" s="3" t="s"/>
+      <x:c r="I22" s="4" t="s"/>
+      <x:c r="J22" s="3" t="s"/>
+      <x:c r="K22" s="4" t="s"/>
+      <x:c r="L22" s="3" t="s"/>
+      <x:c r="M22" s="3" t="s"/>
+      <x:c r="N22" s="4" t="s"/>
+      <x:c r="AA22" s="4" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:27">
       <x:c r="A23" s="6" t="s"/>
-      <x:c r="B23" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:14">
+      <x:c r="B23" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G23" s="3" t="s"/>
+      <x:c r="H23" s="3" t="s"/>
+      <x:c r="I23" s="4" t="s"/>
+      <x:c r="J23" s="3" t="s"/>
+      <x:c r="K23" s="4" t="s"/>
+      <x:c r="L23" s="3" t="s"/>
+      <x:c r="M23" s="3" t="s"/>
+      <x:c r="N23" s="4" t="s"/>
+      <x:c r="AA23" s="4" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:27">
       <x:c r="A24" s="6" t="s"/>
-      <x:c r="B24" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:14">
+      <x:c r="B24" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G24" s="3" t="s"/>
+      <x:c r="H24" s="3" t="s"/>
+      <x:c r="I24" s="4" t="s"/>
+      <x:c r="J24" s="3" t="s"/>
+      <x:c r="K24" s="4" t="s"/>
+      <x:c r="L24" s="3" t="s"/>
+      <x:c r="M24" s="3" t="s"/>
+      <x:c r="N24" s="4" t="s"/>
+      <x:c r="AA24" s="4" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:27">
       <x:c r="B25" s="7" t="s">
-        <x:v>12</x:v>
-      </x:c>
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310" spans="1:27">
+      <x:c r="A310" s="3" t="s"/>
+    </x:row>
+    <x:row r="311" spans="1:27">
+      <x:c r="A311" s="3" t="s"/>
+    </x:row>
+    <x:row r="312" spans="1:27">
+      <x:c r="A312" s="3" t="s"/>
+    </x:row>
+    <x:row r="313" spans="1:27">
+      <x:c r="A313" s="3" t="s"/>
+    </x:row>
+    <x:row r="314" spans="1:27">
+      <x:c r="A314" s="3" t="s"/>
+    </x:row>
+    <x:row r="315" spans="1:27">
+      <x:c r="A315" s="3" t="s"/>
+    </x:row>
+    <x:row r="316" spans="1:27">
+      <x:c r="A316" s="3" t="s"/>
+    </x:row>
+    <x:row r="317" spans="1:27">
+      <x:c r="A317" s="3" t="s"/>
+    </x:row>
+    <x:row r="318" spans="1:27">
+      <x:c r="A318" s="3" t="s"/>
+    </x:row>
+    <x:row r="319" spans="1:27">
+      <x:c r="A319" s="3" t="s"/>
+    </x:row>
+    <x:row r="320" spans="1:27">
+      <x:c r="A320" s="3" t="s"/>
+    </x:row>
+    <x:row r="321" spans="1:27">
+      <x:c r="A321" s="3" t="s"/>
+    </x:row>
+    <x:row r="322" spans="1:27">
+      <x:c r="A322" s="3" t="s"/>
+    </x:row>
+    <x:row r="323" spans="1:27">
+      <x:c r="A323" s="3" t="s"/>
+    </x:row>
+    <x:row r="324" spans="1:27">
+      <x:c r="A324" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="6">

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -99,7 +99,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -111,6 +111,11 @@
         <x:fgColor rgb="FFABC3DF"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="6">
     <x:border diagonalUp="0" diagonalDown="0">
@@ -216,7 +221,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -232,6 +237,12 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -239,7 +250,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -260,12 +271,20 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -576,6 +595,9 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:27">
       <x:c r="A1" s="0" t="s">
@@ -640,6 +662,9 @@
       <x:c r="L10" s="3" t="s"/>
       <x:c r="M10" s="3" t="s"/>
       <x:c r="N10" s="4" t="s"/>
+      <x:c r="O10" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="AA10" s="4" t="s"/>
     </x:row>
     <x:row r="11" spans="1:27">
@@ -649,7 +674,7 @@
       <x:c r="B11" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E11" s="5" t="s">
+      <x:c r="E11" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s"/>
@@ -660,16 +685,19 @@
       <x:c r="L11" s="3" t="s"/>
       <x:c r="M11" s="3" t="s"/>
       <x:c r="N11" s="4" t="s"/>
+      <x:c r="O11" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="AA11" s="4" t="s"/>
     </x:row>
     <x:row r="12" spans="1:27">
-      <x:c r="A12" s="6" t="s">
+      <x:c r="A12" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E12" s="5" t="s">
+      <x:c r="E12" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s"/>
@@ -680,14 +708,17 @@
       <x:c r="L12" s="3" t="s"/>
       <x:c r="M12" s="3" t="s"/>
       <x:c r="N12" s="4" t="s"/>
+      <x:c r="O12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="AA12" s="4" t="s"/>
     </x:row>
     <x:row r="13" spans="1:27">
-      <x:c r="A13" s="6" t="s"/>
+      <x:c r="A13" s="7" t="s"/>
       <x:c r="B13" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E13" s="5" t="s">
+      <x:c r="E13" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G13" s="3" t="s"/>
@@ -698,14 +729,17 @@
       <x:c r="L13" s="3" t="s"/>
       <x:c r="M13" s="3" t="s"/>
       <x:c r="N13" s="4" t="s"/>
+      <x:c r="O13" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="AA13" s="4" t="s"/>
     </x:row>
     <x:row r="14" spans="1:27">
-      <x:c r="A14" s="6" t="s"/>
-      <x:c r="B14" s="7" t="s">
+      <x:c r="A14" s="7" t="s"/>
+      <x:c r="B14" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E14" s="5" t="s">
+      <x:c r="E14" s="6" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G14" s="3" t="s"/>
@@ -716,6 +750,9 @@
       <x:c r="L14" s="3" t="s"/>
       <x:c r="M14" s="3" t="s"/>
       <x:c r="N14" s="4" t="s"/>
+      <x:c r="O14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="AA14" s="4" t="s"/>
     </x:row>
     <x:row r="15" spans="1:27">
@@ -733,10 +770,13 @@
       <x:c r="L15" s="3" t="s"/>
       <x:c r="M15" s="3" t="s"/>
       <x:c r="N15" s="4" t="s"/>
+      <x:c r="O15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="AA15" s="4" t="s"/>
     </x:row>
     <x:row r="16" spans="1:27">
-      <x:c r="A16" s="6" t="s">
+      <x:c r="A16" s="7" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
@@ -750,10 +790,13 @@
       <x:c r="L16" s="3" t="s"/>
       <x:c r="M16" s="3" t="s"/>
       <x:c r="N16" s="4" t="s"/>
+      <x:c r="O16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="AA16" s="4" t="s"/>
     </x:row>
     <x:row r="17" spans="1:27">
-      <x:c r="A17" s="6" t="s"/>
+      <x:c r="A17" s="7" t="s"/>
       <x:c r="B17" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -765,10 +808,13 @@
       <x:c r="L17" s="3" t="s"/>
       <x:c r="M17" s="3" t="s"/>
       <x:c r="N17" s="4" t="s"/>
+      <x:c r="O17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="AA17" s="4" t="s"/>
     </x:row>
     <x:row r="18" spans="1:27">
-      <x:c r="A18" s="6" t="s"/>
+      <x:c r="A18" s="7" t="s"/>
       <x:c r="B18" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -780,10 +826,13 @@
       <x:c r="L18" s="3" t="s"/>
       <x:c r="M18" s="3" t="s"/>
       <x:c r="N18" s="4" t="s"/>
+      <x:c r="O18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="AA18" s="4" t="s"/>
     </x:row>
     <x:row r="19" spans="1:27">
-      <x:c r="A19" s="6" t="s"/>
+      <x:c r="A19" s="7" t="s"/>
       <x:c r="B19" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -795,10 +844,13 @@
       <x:c r="L19" s="3" t="s"/>
       <x:c r="M19" s="3" t="s"/>
       <x:c r="N19" s="4" t="s"/>
+      <x:c r="O19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="AA19" s="4" t="s"/>
     </x:row>
     <x:row r="20" spans="1:27">
-      <x:c r="A20" s="6" t="s">
+      <x:c r="A20" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
@@ -812,10 +864,13 @@
       <x:c r="L20" s="3" t="s"/>
       <x:c r="M20" s="3" t="s"/>
       <x:c r="N20" s="4" t="s"/>
+      <x:c r="O20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="AA20" s="4" t="s"/>
     </x:row>
     <x:row r="21" spans="1:27">
-      <x:c r="A21" s="6" t="s"/>
+      <x:c r="A21" s="7" t="s"/>
       <x:c r="B21" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -827,13 +882,16 @@
       <x:c r="L21" s="3" t="s"/>
       <x:c r="M21" s="3" t="s"/>
       <x:c r="N21" s="4" t="s"/>
+      <x:c r="O21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="AA21" s="4" t="s"/>
     </x:row>
     <x:row r="22" spans="1:27">
-      <x:c r="A22" s="6" t="s">
+      <x:c r="A22" s="7" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B22" s="8" t="s">
+      <x:c r="B22" s="10" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G22" s="3" t="s"/>
@@ -844,10 +902,13 @@
       <x:c r="L22" s="3" t="s"/>
       <x:c r="M22" s="3" t="s"/>
       <x:c r="N22" s="4" t="s"/>
+      <x:c r="O22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="AA22" s="4" t="s"/>
     </x:row>
     <x:row r="23" spans="1:27">
-      <x:c r="A23" s="6" t="s"/>
+      <x:c r="A23" s="7" t="s"/>
       <x:c r="B23" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -859,10 +920,13 @@
       <x:c r="L23" s="3" t="s"/>
       <x:c r="M23" s="3" t="s"/>
       <x:c r="N23" s="4" t="s"/>
+      <x:c r="O23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="AA23" s="4" t="s"/>
     </x:row>
     <x:row r="24" spans="1:27">
-      <x:c r="A24" s="6" t="s"/>
+      <x:c r="A24" s="7" t="s"/>
       <x:c r="B24" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -874,10 +938,13 @@
       <x:c r="L24" s="3" t="s"/>
       <x:c r="M24" s="3" t="s"/>
       <x:c r="N24" s="4" t="s"/>
+      <x:c r="O24" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="AA24" s="4" t="s"/>
     </x:row>
     <x:row r="25" spans="1:27">
-      <x:c r="B25" s="7" t="s">
+      <x:c r="B25" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
     <x:t>Hello World!</x:t>
   </x:si>
@@ -81,14 +81,18 @@
   </x:si>
   <x:si>
     <x:t>중복추가2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          </x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="mm-dd"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -99,7 +103,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="4">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -111,13 +115,8 @@
         <x:fgColor rgb="FFABC3DF"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="9">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -220,41 +219,108 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="medium">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="medium">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -263,6 +329,14 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -271,10 +345,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -283,15 +353,23 @@
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -596,7 +674,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:27">
@@ -606,19 +685,19 @@
       <x:c r="C1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="G1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="H1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="I1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
+      <x:c r="J1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="K1" s="0" t="s">
+      <x:c r="K1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
@@ -648,350 +727,547 @@
       <x:c r="A10" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
+      <x:c r="B10" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="s">
+      <x:c r="E10" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
-      <x:c r="I10" s="4" t="s"/>
-      <x:c r="J10" s="3" t="s"/>
-      <x:c r="K10" s="4" t="s"/>
-      <x:c r="L10" s="3" t="s"/>
-      <x:c r="M10" s="3" t="s"/>
-      <x:c r="N10" s="4" t="s"/>
-      <x:c r="O10" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="AA10" s="4" t="s"/>
+      <x:c r="G10" s="4" t="s"/>
+      <x:c r="H10" s="4" t="s"/>
+      <x:c r="I10" s="5" t="s"/>
+      <x:c r="J10" s="4" t="s"/>
+      <x:c r="K10" s="5" t="s"/>
+      <x:c r="L10" s="6" t="s"/>
+      <x:c r="M10" s="6" t="s"/>
+      <x:c r="N10" s="7" t="s"/>
+      <x:c r="AA10" s="7" t="s"/>
     </x:row>
     <x:row r="11" spans="1:27">
       <x:c r="A11" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="B11" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E11" s="6" t="s">
+      <x:c r="E11" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G11" s="3" t="s"/>
-      <x:c r="H11" s="3" t="s"/>
-      <x:c r="I11" s="4" t="s"/>
-      <x:c r="J11" s="3" t="s"/>
-      <x:c r="K11" s="4" t="s"/>
-      <x:c r="L11" s="3" t="s"/>
-      <x:c r="M11" s="3" t="s"/>
-      <x:c r="N11" s="4" t="s"/>
-      <x:c r="O11" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="AA11" s="4" t="s"/>
+      <x:c r="G11" s="4" t="s"/>
+      <x:c r="H11" s="4" t="s"/>
+      <x:c r="I11" s="5" t="s"/>
+      <x:c r="J11" s="4" t="s"/>
+      <x:c r="K11" s="5" t="s"/>
+      <x:c r="L11" s="6" t="s"/>
+      <x:c r="M11" s="6" t="s"/>
+      <x:c r="N11" s="7" t="s"/>
+      <x:c r="AA11" s="7" t="s"/>
     </x:row>
     <x:row r="12" spans="1:27">
-      <x:c r="A12" s="7" t="s">
+      <x:c r="A12" s="9" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B12" s="1" t="s">
+      <x:c r="B12" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E12" s="6" t="s">
+      <x:c r="E12" s="8" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G12" s="3" t="s"/>
-      <x:c r="H12" s="3" t="s"/>
-      <x:c r="I12" s="4" t="s"/>
-      <x:c r="J12" s="3" t="s"/>
-      <x:c r="K12" s="4" t="s"/>
-      <x:c r="L12" s="3" t="s"/>
-      <x:c r="M12" s="3" t="s"/>
-      <x:c r="N12" s="4" t="s"/>
-      <x:c r="O12" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="AA12" s="4" t="s"/>
+      <x:c r="G12" s="4" t="s"/>
+      <x:c r="H12" s="4" t="s"/>
+      <x:c r="I12" s="5" t="s"/>
+      <x:c r="J12" s="4" t="s"/>
+      <x:c r="K12" s="5" t="s"/>
+      <x:c r="L12" s="6" t="s"/>
+      <x:c r="M12" s="6" t="s"/>
+      <x:c r="N12" s="7" t="s"/>
+      <x:c r="AA12" s="7" t="s"/>
     </x:row>
     <x:row r="13" spans="1:27">
-      <x:c r="A13" s="7" t="s"/>
-      <x:c r="B13" s="1" t="s">
+      <x:c r="A13" s="9" t="s"/>
+      <x:c r="B13" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E13" s="6" t="s">
+      <x:c r="E13" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G13" s="3" t="s"/>
-      <x:c r="H13" s="3" t="s"/>
-      <x:c r="I13" s="4" t="s"/>
-      <x:c r="J13" s="3" t="s"/>
-      <x:c r="K13" s="4" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-      <x:c r="M13" s="3" t="s"/>
-      <x:c r="N13" s="4" t="s"/>
-      <x:c r="O13" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="AA13" s="4" t="s"/>
+      <x:c r="G13" s="4" t="s"/>
+      <x:c r="H13" s="4" t="s"/>
+      <x:c r="I13" s="5" t="s"/>
+      <x:c r="J13" s="4" t="s"/>
+      <x:c r="K13" s="5" t="s"/>
+      <x:c r="L13" s="6" t="s"/>
+      <x:c r="M13" s="6" t="s"/>
+      <x:c r="N13" s="7" t="s"/>
+      <x:c r="AA13" s="7" t="s"/>
     </x:row>
     <x:row r="14" spans="1:27">
-      <x:c r="A14" s="7" t="s"/>
-      <x:c r="B14" s="9" t="s">
+      <x:c r="A14" s="9" t="s"/>
+      <x:c r="B14" s="10" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E14" s="6" t="s">
+      <x:c r="E14" s="8" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="G14" s="3" t="s"/>
-      <x:c r="H14" s="3" t="s"/>
-      <x:c r="I14" s="4" t="s"/>
-      <x:c r="J14" s="3" t="s"/>
-      <x:c r="K14" s="4" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-      <x:c r="M14" s="3" t="s"/>
-      <x:c r="N14" s="4" t="s"/>
-      <x:c r="O14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="AA14" s="4" t="s"/>
+      <x:c r="G14" s="4" t="s"/>
+      <x:c r="H14" s="4" t="s"/>
+      <x:c r="I14" s="5" t="s"/>
+      <x:c r="J14" s="4" t="s"/>
+      <x:c r="K14" s="5" t="s"/>
+      <x:c r="L14" s="6" t="s"/>
+      <x:c r="M14" s="6" t="s"/>
+      <x:c r="N14" s="7" t="s"/>
+      <x:c r="AA14" s="7" t="s"/>
     </x:row>
     <x:row r="15" spans="1:27">
       <x:c r="A15" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B15" s="1" t="s">
+      <x:c r="B15" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G15" s="3" t="s"/>
-      <x:c r="H15" s="3" t="s"/>
-      <x:c r="I15" s="4" t="s"/>
-      <x:c r="J15" s="3" t="s"/>
-      <x:c r="K15" s="4" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-      <x:c r="M15" s="3" t="s"/>
-      <x:c r="N15" s="4" t="s"/>
-      <x:c r="O15" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="AA15" s="4" t="s"/>
+      <x:c r="G15" s="4" t="s"/>
+      <x:c r="H15" s="4" t="s"/>
+      <x:c r="I15" s="5" t="s"/>
+      <x:c r="J15" s="4" t="s"/>
+      <x:c r="K15" s="5" t="s"/>
+      <x:c r="L15" s="6" t="s"/>
+      <x:c r="M15" s="6" t="s"/>
+      <x:c r="N15" s="7" t="s"/>
+      <x:c r="AA15" s="7" t="s"/>
     </x:row>
     <x:row r="16" spans="1:27">
-      <x:c r="A16" s="7" t="s">
+      <x:c r="A16" s="9" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B16" s="1" t="s">
+      <x:c r="B16" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G16" s="3" t="s"/>
-      <x:c r="H16" s="3" t="s"/>
-      <x:c r="I16" s="4" t="s"/>
-      <x:c r="J16" s="3" t="s"/>
-      <x:c r="K16" s="4" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-      <x:c r="M16" s="3" t="s"/>
-      <x:c r="N16" s="4" t="s"/>
-      <x:c r="O16" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="AA16" s="4" t="s"/>
+      <x:c r="G16" s="4" t="s"/>
+      <x:c r="H16" s="4" t="s"/>
+      <x:c r="I16" s="5" t="s"/>
+      <x:c r="J16" s="4" t="s"/>
+      <x:c r="K16" s="5" t="s"/>
+      <x:c r="L16" s="6" t="s"/>
+      <x:c r="M16" s="6" t="s"/>
+      <x:c r="N16" s="7" t="s"/>
+      <x:c r="AA16" s="7" t="s"/>
     </x:row>
     <x:row r="17" spans="1:27">
-      <x:c r="A17" s="7" t="s"/>
-      <x:c r="B17" s="1" t="s">
+      <x:c r="A17" s="9" t="s"/>
+      <x:c r="B17" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G17" s="3" t="s"/>
-      <x:c r="H17" s="3" t="s"/>
-      <x:c r="I17" s="4" t="s"/>
-      <x:c r="J17" s="3" t="s"/>
-      <x:c r="K17" s="4" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-      <x:c r="M17" s="3" t="s"/>
-      <x:c r="N17" s="4" t="s"/>
-      <x:c r="O17" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="AA17" s="4" t="s"/>
+      <x:c r="G17" s="4" t="s"/>
+      <x:c r="H17" s="4" t="s"/>
+      <x:c r="I17" s="5" t="s"/>
+      <x:c r="J17" s="4" t="s"/>
+      <x:c r="K17" s="5" t="s"/>
+      <x:c r="L17" s="6" t="s"/>
+      <x:c r="M17" s="6" t="s"/>
+      <x:c r="N17" s="7" t="s"/>
+      <x:c r="AA17" s="7" t="s"/>
     </x:row>
     <x:row r="18" spans="1:27">
-      <x:c r="A18" s="7" t="s"/>
-      <x:c r="B18" s="1" t="s">
+      <x:c r="A18" s="9" t="s"/>
+      <x:c r="B18" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G18" s="3" t="s"/>
-      <x:c r="H18" s="3" t="s"/>
-      <x:c r="I18" s="4" t="s"/>
-      <x:c r="J18" s="3" t="s"/>
-      <x:c r="K18" s="4" t="s"/>
-      <x:c r="L18" s="3" t="s"/>
-      <x:c r="M18" s="3" t="s"/>
-      <x:c r="N18" s="4" t="s"/>
-      <x:c r="O18" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="AA18" s="4" t="s"/>
+      <x:c r="G18" s="4" t="s"/>
+      <x:c r="H18" s="4" t="s"/>
+      <x:c r="I18" s="5" t="s"/>
+      <x:c r="J18" s="4" t="s"/>
+      <x:c r="K18" s="5" t="s"/>
+      <x:c r="L18" s="6" t="s"/>
+      <x:c r="M18" s="6" t="s"/>
+      <x:c r="N18" s="7" t="s"/>
+      <x:c r="AA18" s="7" t="s"/>
     </x:row>
     <x:row r="19" spans="1:27">
-      <x:c r="A19" s="7" t="s"/>
-      <x:c r="B19" s="1" t="s">
+      <x:c r="A19" s="9" t="s"/>
+      <x:c r="B19" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G19" s="3" t="s"/>
-      <x:c r="H19" s="3" t="s"/>
-      <x:c r="I19" s="4" t="s"/>
-      <x:c r="J19" s="3" t="s"/>
-      <x:c r="K19" s="4" t="s"/>
-      <x:c r="L19" s="3" t="s"/>
-      <x:c r="M19" s="3" t="s"/>
-      <x:c r="N19" s="4" t="s"/>
-      <x:c r="O19" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="AA19" s="4" t="s"/>
+      <x:c r="G19" s="4" t="s"/>
+      <x:c r="H19" s="4" t="s"/>
+      <x:c r="I19" s="5" t="s"/>
+      <x:c r="J19" s="4" t="s"/>
+      <x:c r="K19" s="5" t="s"/>
+      <x:c r="L19" s="6" t="s"/>
+      <x:c r="M19" s="6" t="s"/>
+      <x:c r="N19" s="7" t="s"/>
+      <x:c r="AA19" s="7" t="s"/>
     </x:row>
     <x:row r="20" spans="1:27">
-      <x:c r="A20" s="7" t="s">
+      <x:c r="A20" s="9" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B20" s="1" t="s">
+      <x:c r="B20" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G20" s="3" t="s"/>
-      <x:c r="H20" s="3" t="s"/>
-      <x:c r="I20" s="4" t="s"/>
-      <x:c r="J20" s="3" t="s"/>
-      <x:c r="K20" s="4" t="s"/>
-      <x:c r="L20" s="3" t="s"/>
-      <x:c r="M20" s="3" t="s"/>
-      <x:c r="N20" s="4" t="s"/>
-      <x:c r="O20" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="AA20" s="4" t="s"/>
+      <x:c r="G20" s="4" t="s"/>
+      <x:c r="H20" s="4" t="s"/>
+      <x:c r="I20" s="5" t="s"/>
+      <x:c r="J20" s="4" t="s"/>
+      <x:c r="K20" s="5" t="s"/>
+      <x:c r="L20" s="6" t="s"/>
+      <x:c r="M20" s="6" t="s"/>
+      <x:c r="N20" s="7" t="s"/>
+      <x:c r="AA20" s="7" t="s"/>
     </x:row>
     <x:row r="21" spans="1:27">
-      <x:c r="A21" s="7" t="s"/>
-      <x:c r="B21" s="1" t="s">
+      <x:c r="A21" s="9" t="s"/>
+      <x:c r="B21" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G21" s="3" t="s"/>
-      <x:c r="H21" s="3" t="s"/>
-      <x:c r="I21" s="4" t="s"/>
-      <x:c r="J21" s="3" t="s"/>
-      <x:c r="K21" s="4" t="s"/>
-      <x:c r="L21" s="3" t="s"/>
-      <x:c r="M21" s="3" t="s"/>
-      <x:c r="N21" s="4" t="s"/>
-      <x:c r="O21" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="AA21" s="4" t="s"/>
+      <x:c r="G21" s="4" t="s"/>
+      <x:c r="H21" s="4" t="s"/>
+      <x:c r="I21" s="5" t="s"/>
+      <x:c r="J21" s="4" t="s"/>
+      <x:c r="K21" s="5" t="s"/>
+      <x:c r="L21" s="6" t="s"/>
+      <x:c r="M21" s="6" t="s"/>
+      <x:c r="N21" s="7" t="s"/>
+      <x:c r="AA21" s="7" t="s"/>
     </x:row>
     <x:row r="22" spans="1:27">
-      <x:c r="A22" s="7" t="s">
+      <x:c r="A22" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B22" s="10" t="s">
+      <x:c r="B22" s="11" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G22" s="3" t="s"/>
-      <x:c r="H22" s="3" t="s"/>
-      <x:c r="I22" s="4" t="s"/>
-      <x:c r="J22" s="3" t="s"/>
-      <x:c r="K22" s="4" t="s"/>
-      <x:c r="L22" s="3" t="s"/>
-      <x:c r="M22" s="3" t="s"/>
-      <x:c r="N22" s="4" t="s"/>
-      <x:c r="O22" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="AA22" s="4" t="s"/>
+      <x:c r="G22" s="4" t="s"/>
+      <x:c r="H22" s="4" t="s"/>
+      <x:c r="I22" s="5" t="s"/>
+      <x:c r="J22" s="4" t="s"/>
+      <x:c r="K22" s="5" t="s"/>
+      <x:c r="L22" s="6" t="s"/>
+      <x:c r="M22" s="6" t="s"/>
+      <x:c r="N22" s="7" t="s"/>
+      <x:c r="AA22" s="7" t="s"/>
     </x:row>
     <x:row r="23" spans="1:27">
-      <x:c r="A23" s="7" t="s"/>
-      <x:c r="B23" s="1" t="s">
+      <x:c r="A23" s="9" t="s"/>
+      <x:c r="B23" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G23" s="3" t="s"/>
-      <x:c r="H23" s="3" t="s"/>
-      <x:c r="I23" s="4" t="s"/>
-      <x:c r="J23" s="3" t="s"/>
-      <x:c r="K23" s="4" t="s"/>
-      <x:c r="L23" s="3" t="s"/>
-      <x:c r="M23" s="3" t="s"/>
-      <x:c r="N23" s="4" t="s"/>
-      <x:c r="O23" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="AA23" s="4" t="s"/>
+      <x:c r="G23" s="4" t="s"/>
+      <x:c r="H23" s="4" t="s"/>
+      <x:c r="I23" s="5" t="s"/>
+      <x:c r="J23" s="4" t="s"/>
+      <x:c r="K23" s="5" t="s"/>
+      <x:c r="L23" s="6" t="s"/>
+      <x:c r="M23" s="6" t="s"/>
+      <x:c r="N23" s="7" t="s"/>
+      <x:c r="AA23" s="7" t="s"/>
     </x:row>
     <x:row r="24" spans="1:27">
-      <x:c r="A24" s="7" t="s"/>
-      <x:c r="B24" s="1" t="s">
+      <x:c r="A24" s="9" t="s"/>
+      <x:c r="B24" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G24" s="3" t="s"/>
-      <x:c r="H24" s="3" t="s"/>
-      <x:c r="I24" s="4" t="s"/>
-      <x:c r="J24" s="3" t="s"/>
-      <x:c r="K24" s="4" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-      <x:c r="M24" s="3" t="s"/>
-      <x:c r="N24" s="4" t="s"/>
-      <x:c r="O24" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="AA24" s="4" t="s"/>
+      <x:c r="G24" s="4" t="s"/>
+      <x:c r="H24" s="4" t="s"/>
+      <x:c r="I24" s="5" t="s"/>
+      <x:c r="J24" s="4" t="s"/>
+      <x:c r="K24" s="5" t="s"/>
+      <x:c r="L24" s="6" t="s"/>
+      <x:c r="M24" s="6" t="s"/>
+      <x:c r="N24" s="7" t="s"/>
+      <x:c r="AA24" s="7" t="s"/>
     </x:row>
     <x:row r="25" spans="1:27">
-      <x:c r="B25" s="9" t="s">
+      <x:c r="B25" s="10" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="29" spans="1:27">
+      <x:c r="G29" s="1" t="s"/>
+      <x:c r="H29" s="1" t="s"/>
+      <x:c r="I29" s="1" t="s"/>
+      <x:c r="J29" s="1" t="s"/>
+      <x:c r="K29" s="1" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:27">
+      <x:c r="G30" s="1">
+        <x:v>43959</x:v>
+      </x:c>
+      <x:c r="H30" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="I30" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J30" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K30" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:27">
+      <x:c r="G31" s="1">
+        <x:v>43961</x:v>
+      </x:c>
+      <x:c r="H31" s="1">
+        <x:v>44228</x:v>
+      </x:c>
+      <x:c r="I31" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J31" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K31" s="1">
+        <x:v>44228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:27">
+      <x:c r="G32" s="1">
+        <x:v>43990</x:v>
+      </x:c>
+      <x:c r="H32" s="1">
+        <x:v>44197</x:v>
+      </x:c>
+      <x:c r="I32" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J32" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K32" s="1">
+        <x:v>44197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:27">
+      <x:c r="G33" s="1">
+        <x:v>43959</x:v>
+      </x:c>
+      <x:c r="H33" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="I33" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J33" s="12">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K33" s="13">
+        <x:v>44348</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:27">
+      <x:c r="G34" s="1">
+        <x:v>43838</x:v>
+      </x:c>
+      <x:c r="H34" s="1">
+        <x:v>44256</x:v>
+      </x:c>
+      <x:c r="I34" s="12">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J34" s="13">
+        <x:v>44409</x:v>
+      </x:c>
+      <x:c r="K34" s="13">
+        <x:v>44354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:27">
+      <x:c r="G35" s="1">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="H35" s="1">
+        <x:v>44228</x:v>
+      </x:c>
+      <x:c r="I35" s="13">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="J35" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K35" s="13">
+        <x:v>44228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:27">
+      <x:c r="G36" s="1">
+        <x:v>43898</x:v>
+      </x:c>
+      <x:c r="H36" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="I36" s="13">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J36" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K36" s="12">
+        <x:v>44348</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:27">
+      <x:c r="G37" s="1">
+        <x:v>43929</x:v>
+      </x:c>
+      <x:c r="H37" s="1">
+        <x:v>44317</x:v>
+      </x:c>
+      <x:c r="I37" s="13">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J37" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K37" s="1">
+        <x:v>44366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:27">
+      <x:c r="G38" s="1">
+        <x:v>43959</x:v>
+      </x:c>
+      <x:c r="H38" s="1">
+        <x:v>44317</x:v>
+      </x:c>
+      <x:c r="I38" s="13">
+        <x:v>43983</x:v>
+      </x:c>
+      <x:c r="J38" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K38" s="1">
+        <x:v>44317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:27">
+      <x:c r="G39" s="1">
+        <x:v>43952</x:v>
+      </x:c>
+      <x:c r="H39" s="1">
+        <x:v>44356</x:v>
+      </x:c>
+      <x:c r="I39" s="13">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J39" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K39" s="1">
+        <x:v>44355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:27">
+      <x:c r="G40" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H40" s="13">
+        <x:v>44356</x:v>
+      </x:c>
+      <x:c r="I40" s="13">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J40" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K40" s="1">
+        <x:v>44355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:27">
+      <x:c r="G41" s="1">
+        <x:v>44378</x:v>
+      </x:c>
+      <x:c r="H41" s="12">
+        <x:v>44356</x:v>
+      </x:c>
+      <x:c r="I41" s="13">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J41" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K41" s="14">
+        <x:v>44355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:27">
+      <x:c r="G42" s="1">
+        <x:v>43952</x:v>
+      </x:c>
+      <x:c r="H42" s="1">
+        <x:v>44418</x:v>
+      </x:c>
+      <x:c r="I42" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="J42" s="1">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K42" s="1">
+        <x:v>44418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:27">
+      <x:c r="G43" s="1" t="s"/>
+      <x:c r="H43" s="1" t="s"/>
+      <x:c r="I43" s="1" t="s"/>
+      <x:c r="J43" s="1" t="s"/>
+      <x:c r="K43" s="1" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:27">
+      <x:c r="G44" s="1" t="s"/>
+      <x:c r="H44" s="1" t="s"/>
+      <x:c r="I44" s="1" t="s"/>
+      <x:c r="J44" s="1" t="s"/>
+      <x:c r="K44" s="1" t="s"/>
+    </x:row>
     <x:row r="310" spans="1:27">
-      <x:c r="A310" s="3" t="s"/>
+      <x:c r="A310" s="6" t="s"/>
     </x:row>
     <x:row r="311" spans="1:27">
-      <x:c r="A311" s="3" t="s"/>
+      <x:c r="A311" s="6" t="s"/>
     </x:row>
     <x:row r="312" spans="1:27">
-      <x:c r="A312" s="3" t="s"/>
+      <x:c r="A312" s="6" t="s"/>
     </x:row>
     <x:row r="313" spans="1:27">
-      <x:c r="A313" s="3" t="s"/>
+      <x:c r="A313" s="6" t="s"/>
     </x:row>
     <x:row r="314" spans="1:27">
-      <x:c r="A314" s="3" t="s"/>
+      <x:c r="A314" s="6" t="s"/>
     </x:row>
     <x:row r="315" spans="1:27">
-      <x:c r="A315" s="3" t="s"/>
+      <x:c r="A315" s="6" t="s"/>
     </x:row>
     <x:row r="316" spans="1:27">
-      <x:c r="A316" s="3" t="s"/>
+      <x:c r="A316" s="6" t="s"/>
     </x:row>
     <x:row r="317" spans="1:27">
-      <x:c r="A317" s="3" t="s"/>
+      <x:c r="A317" s="6" t="s"/>
     </x:row>
     <x:row r="318" spans="1:27">
-      <x:c r="A318" s="3" t="s"/>
+      <x:c r="A318" s="6" t="s"/>
     </x:row>
     <x:row r="319" spans="1:27">
-      <x:c r="A319" s="3" t="s"/>
+      <x:c r="A319" s="6" t="s"/>
     </x:row>
     <x:row r="320" spans="1:27">
-      <x:c r="A320" s="3" t="s"/>
+      <x:c r="A320" s="6" t="s"/>
     </x:row>
     <x:row r="321" spans="1:27">
-      <x:c r="A321" s="3" t="s"/>
+      <x:c r="A321" s="6" t="s"/>
     </x:row>
     <x:row r="322" spans="1:27">
-      <x:c r="A322" s="3" t="s"/>
+      <x:c r="A322" s="6" t="s"/>
     </x:row>
     <x:row r="323" spans="1:27">
-      <x:c r="A323" s="3" t="s"/>
+      <x:c r="A323" s="6" t="s"/>
     </x:row>
     <x:row r="324" spans="1:27">
-      <x:c r="A324" s="3" t="s"/>
+      <x:c r="A324" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="6">

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -271,7 +271,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="13">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -308,11 +308,17 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -366,6 +372,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -676,6 +690,7 @@
   <x:cols>
     <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
     <x:col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="12" max="27" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:27">
@@ -982,6 +997,12 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="28" spans="1:27">
+      <x:c r="H28" s="1" t="s"/>
+      <x:c r="I28" s="1" t="s"/>
+      <x:c r="J28" s="1" t="s"/>
+      <x:c r="K28" s="1" t="s"/>
+    </x:row>
     <x:row r="29" spans="1:27">
       <x:c r="G29" s="1" t="s"/>
       <x:c r="H29" s="1" t="s"/>
@@ -1084,10 +1105,10 @@
       <x:c r="I35" s="13">
         <x:v>44378</x:v>
       </x:c>
-      <x:c r="J35" s="1">
-        <x:v>44348</x:v>
-      </x:c>
-      <x:c r="K35" s="13">
+      <x:c r="J35" s="14">
+        <x:v>44348</x:v>
+      </x:c>
+      <x:c r="K35" s="1">
         <x:v>44228</x:v>
       </x:c>
     </x:row>
@@ -1098,7 +1119,7 @@
       <x:c r="H36" s="1">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="I36" s="13">
+      <x:c r="I36" s="15">
         <x:v>44348</x:v>
       </x:c>
       <x:c r="J36" s="1">
@@ -1138,7 +1159,7 @@
       <x:c r="J38" s="1">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="K38" s="1">
+      <x:c r="K38" s="14">
         <x:v>44317</x:v>
       </x:c>
     </x:row>
@@ -1160,10 +1181,10 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="1:27">
-      <x:c r="G40" s="14" t="s">
+      <x:c r="G40" s="16" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H40" s="13">
+      <x:c r="H40" s="1">
         <x:v>44356</x:v>
       </x:c>
       <x:c r="I40" s="13">
@@ -1189,12 +1210,12 @@
       <x:c r="J41" s="1">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="K41" s="14">
+      <x:c r="K41" s="16">
         <x:v>44355</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:27">
-      <x:c r="G42" s="1">
+      <x:c r="G42" s="14">
         <x:v>43952</x:v>
       </x:c>
       <x:c r="H42" s="1">

--- a/WPF_Tranning/HelloWorld.xlsx
+++ b/WPF_Tranning/HelloWorld.xlsx
@@ -103,7 +103,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -115,6 +115,11 @@
         <x:fgColor rgb="FFABC3DF"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="9">
     <x:border diagonalUp="0" diagonalDown="0">
@@ -308,10 +313,10 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -375,11 +380,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1088,7 +1093,7 @@
       <x:c r="I34" s="12">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="J34" s="13">
+      <x:c r="J34" s="14">
         <x:v>44409</x:v>
       </x:c>
       <x:c r="K34" s="13">
@@ -1102,10 +1107,10 @@
       <x:c r="H35" s="1">
         <x:v>44228</x:v>
       </x:c>
-      <x:c r="I35" s="13">
+      <x:c r="I35" s="14">
         <x:v>44378</x:v>
       </x:c>
-      <x:c r="J35" s="14">
+      <x:c r="J35" s="1">
         <x:v>44348</x:v>
       </x:c>
       <x:c r="K35" s="1">
@@ -1119,7 +1124,7 @@
       <x:c r="H36" s="1">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="I36" s="15">
+      <x:c r="I36" s="13">
         <x:v>44348</x:v>
       </x:c>
       <x:c r="J36" s="1">
@@ -1142,7 +1147,7 @@
       <x:c r="J37" s="1">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="K37" s="1">
+      <x:c r="K37" s="15">
         <x:v>44366</x:v>
       </x:c>
     </x:row>
@@ -1159,7 +1164,7 @@
       <x:c r="J38" s="1">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="K38" s="14">
+      <x:c r="K38" s="1">
         <x:v>44317</x:v>
       </x:c>
     </x:row>
@@ -1198,7 +1203,7 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="1:27">
-      <x:c r="G41" s="1">
+      <x:c r="G41" s="15">
         <x:v>44378</x:v>
       </x:c>
       <x:c r="H41" s="12">
@@ -1215,10 +1220,10 @@
       </x:c>
     </x:row>
     <x:row r="42" spans="1:27">
-      <x:c r="G42" s="14">
+      <x:c r="G42" s="1">
         <x:v>43952</x:v>
       </x:c>
-      <x:c r="H42" s="1">
+      <x:c r="H42" s="15">
         <x:v>44418</x:v>
       </x:c>
       <x:c r="I42" s="1">
@@ -1227,7 +1232,7 @@
       <x:c r="J42" s="1">
         <x:v>44348</x:v>
       </x:c>
-      <x:c r="K42" s="1">
+      <x:c r="K42" s="15">
         <x:v>44418</x:v>
       </x:c>
     </x:row>
